--- a/PLANNING.xlsx
+++ b/PLANNING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Planning</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>Start van het project</t>
+  </si>
+  <si>
+    <t>Wie</t>
+  </si>
+  <si>
+    <t>Iedereen</t>
+  </si>
+  <si>
+    <t>Einde Project</t>
+  </si>
+  <si>
+    <t>Einde van het project</t>
   </si>
 </sst>
 </file>
@@ -89,20 +101,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,14 +434,15 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -435,9 +451,9 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -446,9 +462,9 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -457,18 +473,21 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>41675</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -477,6 +496,107 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>41734</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PLANNING.xlsx
+++ b/PLANNING.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Planning</t>
   </si>
@@ -43,14 +43,125 @@
     <t>Einde Project</t>
   </si>
   <si>
-    <t>Einde van het project</t>
+    <t>Definief einde van het project</t>
+  </si>
+  <si>
+    <t>Einde van het project voor ons team</t>
+  </si>
+  <si>
+    <t>Start Fase Oriëntatie</t>
+  </si>
+  <si>
+    <t>Einde Fase Oriëntatie</t>
+  </si>
+  <si>
+    <t>Start Fase Definitie</t>
+  </si>
+  <si>
+    <t>Einde Fase Definitie</t>
+  </si>
+  <si>
+    <t>Start Fase Ontwerp</t>
+  </si>
+  <si>
+    <t>Einde Fase Ontwerp</t>
+  </si>
+  <si>
+    <t>Start Fase Werkvoorbereiding</t>
+  </si>
+  <si>
+    <t>Einde Fase Werkvoorbereiding</t>
+  </si>
+  <si>
+    <t>Start Fase Realisatie</t>
+  </si>
+  <si>
+    <t>Einde Fase Realisatie</t>
+  </si>
+  <si>
+    <t>Start Fase Oplevering</t>
+  </si>
+  <si>
+    <t>Einde Fase Oplevering</t>
+  </si>
+  <si>
+    <t>Start Fase Nazorg</t>
+  </si>
+  <si>
+    <t>Einde Fase Nazorg</t>
+  </si>
+  <si>
+    <t>Eisen en Wensen</t>
+  </si>
+  <si>
+    <t>Vaststellen eisen en wensen</t>
+  </si>
+  <si>
+    <t>Gesprek met klant</t>
+  </si>
+  <si>
+    <t>Gesprek over de te maken applicatie</t>
+  </si>
+  <si>
+    <t>Vaardigheden</t>
+  </si>
+  <si>
+    <t>Vaststellen van de vaardigheden</t>
+  </si>
+  <si>
+    <t>Ruud</t>
+  </si>
+  <si>
+    <t>Rik</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Taakverdeling</t>
+  </si>
+  <si>
+    <t>Taakverdeling m.b.t. programmeren</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>Maken van UML Diagram</t>
+  </si>
+  <si>
+    <t>Schets interface</t>
+  </si>
+  <si>
+    <t>Schetsen de gebruikersomgeving</t>
+  </si>
+  <si>
+    <t>UML en Ontwerp</t>
+  </si>
+  <si>
+    <t>Definief ontwerp vd applicatie</t>
+  </si>
+  <si>
+    <t>Programmeren</t>
+  </si>
+  <si>
+    <t>Voorbereiding</t>
+  </si>
+  <si>
+    <t>Voorbereiding Presentatie</t>
+  </si>
+  <si>
+    <t>Jos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-413]d/mmm/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +176,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -101,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -113,12 +242,47 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -423,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,11 +602,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -451,9 +615,9 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -462,9 +626,9 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -482,121 +646,273 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>41675</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="16">
+        <v>41685</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>41734</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D26" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>41726</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
